--- a/biology/Histoire de la zoologie et de la botanique/Robert_Etheridge/Robert_Etheridge.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Robert_Etheridge/Robert_Etheridge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Etheridge (Ross-on-Wye, 3 décembre 1819-Chelsea, 18 décembre 1903) est un paléontologue et géologue britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir quitté l'école, il entre dans une maison de commerce à Bristol. Il consacre alors tout son temps libre à l'étude de l'histoire naturelle. Sans cursus universitaire, il devient pourtant grâce à sa passion, conservateur au musée attaché à la Bristol Philosophical Institution (1850) puis maître de conférences en botanique à la faculté de médecine de Bristol. En 1857, il obtient un poste à Londres au Geological Museum et devient paléontologue du Geological survey.
 En 1865, il est l'assistant de Thomas Henry Huxley pour son Catalogue of Fossils in the Museum of Practical Geology. Il devient alors un des spécialistes des fossiles de Grande-Bretagne.
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>On lui doit de nombreux articles sur les fossiles de Grande-Bretagne mais aussi de Jamaïque et du Queensland (1872). En 1878, il écrit une description des fossiles ramenés d'Arctique par Sir George Nares qui est à l'époque la plus importante étude sur la paléontologie polaire.
 The geology of part of Leicestershire, 1860
@@ -583,7 +599,9 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Îles Etheridge ont été nommées en son honneur en 1895 par Frederick G. Jackson.
 </t>
